--- a/Matriz de consistencia_Correc_Final.xlsx
+++ b/Matriz de consistencia_Correc_Final.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elizabeth\OneDrive - Universidad ESAN\Escritorio\TESIS_2024_01\Tesis-avances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95F34A9-FFD1-4474-A8B2-4770AB36F6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C02236C-0197-4268-AD98-7ADEE795B9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B60C969D-11D3-4C57-AE39-7F6FBA2C6615}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Problemas</t>
   </si>
@@ -101,78 +102,6 @@
     <t>Y3</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementacion de los algoritmos DL </t>
-  </si>
-  <si>
-    <t>valores de preción por algoritmo</t>
-  </si>
-  <si>
-    <t>diferentes tipos de ruido presentes en las imágenes</t>
-  </si>
-  <si>
-    <t>como afecta la precision del modelo</t>
-  </si>
-  <si>
-    <t>% de precisión de cada algoritmo en la clasificación de melanomas y no melanomas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% de precisión de cada algoritmo en la clasificación </t>
-  </si>
-  <si>
-    <t xml:space="preserve">% disminución en la precisión de la clasificación </t>
-  </si>
-  <si>
-    <t>rendimiento de algoritmos (IRA)</t>
-  </si>
-  <si>
-    <t>precisión global (IPG)</t>
-  </si>
-  <si>
-    <t>Índice de mejora en la comprensión (IMC):</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> % de precisión del modelo de Deep Learning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilización de técnicas de Deep Learning y visión por computadora para la detección temprana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">% de lesiones dermatológicas </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> detección temprana (IDT)</t>
-  </si>
-  <si>
-    <t>precisión del modelo (IPM)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% precisión del modelo de Deep Learning en la identificación de características específicas asociadas con el cáncer de piel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Métricas utilizadas para evaluar y medir la precisión de los modelos </t>
-  </si>
-  <si>
-    <t>Comprensión de los modelos de Deep Learning en la deteccion</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> exhaustividad del marco de evaluación (IEM)</t>
-  </si>
-  <si>
-    <t>Proporción de métricas incluidas en el marco de evaluación en comparación con el total de métricas disponibles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% de mejora en la comprensión del rendimiento de los modelos de Deep Learning debido al uso de métricas </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Índice de impacto del ruido (IIR</t>
-  </si>
-  <si>
-    <t>Índice de disminución de precisión (IDP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Proporción de imágenes afectadas por cada tipo de ruido en el conjunto de datos en comparación con el total de trabajos revisados.</t>
-  </si>
-  <si>
     <t>Nombre del Indice</t>
   </si>
   <si>
@@ -222,6 +151,105 @@
   </si>
   <si>
     <t>Identificar los tipos de ruidos en las imágenes dermatológicas permitirá tener un modelo con mayor precisión en la  detección de cáncer de piel de tipo melanoma.</t>
+  </si>
+  <si>
+    <t>Características de la imagen dermatológica</t>
+  </si>
+  <si>
+    <t>Forma de la lesión</t>
+  </si>
+  <si>
+    <t>Contraste (usando la Matriz de Co-ocurrencia de Nivel de Gris, GLCM)</t>
+  </si>
+  <si>
+    <t>Diagnóstico de cáncer de piel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">% de que sea un melanoma según la funsión Deep Learning </t>
+  </si>
+  <si>
+    <t>Probabilidad de melanoma</t>
+  </si>
+  <si>
+    <t>Precisión del Algoritmo</t>
+  </si>
+  <si>
+    <t>Algoritmos de Deep Learning</t>
+  </si>
+  <si>
+    <t>Precisión (Accuracy)</t>
+  </si>
+  <si>
+    <t>Clasificación del Cáncer de Piel</t>
+  </si>
+  <si>
+    <t>Efectividad de la Clasificación</t>
+  </si>
+  <si>
+    <t>Área Bajo la Curva Característica Operativa del Receptor (AUC-ROC)</t>
+  </si>
+  <si>
+    <t>Rendimiento del Modelo de Deep Learning</t>
+  </si>
+  <si>
+    <t>Sensibilidad del Modelo</t>
+  </si>
+  <si>
+    <t>Sensibilidad (Recall)</t>
+  </si>
+  <si>
+    <t>Efectividad de la Detección</t>
+  </si>
+  <si>
+    <t>Puntaje F1 (F1-Score)</t>
+  </si>
+  <si>
+    <t>Evaluación de la Detección del Melanoma</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>Nivel de Ruido</t>
+  </si>
+  <si>
+    <t>Tipos de Ruido en Imágenes Dermatológicas</t>
+  </si>
+  <si>
+    <t>Relación Señal-Ruido (SNR)</t>
+  </si>
+  <si>
+    <t>Exactitud del Modelo</t>
+  </si>
+  <si>
+    <t>Tasa de Falsos Positivos</t>
+  </si>
+  <si>
+    <t>Eficiencia del Preprocesamiento en la Mejora del Modelo</t>
+  </si>
+  <si>
+    <t>Tasa de Falsos Positivos (FPR)</t>
+  </si>
+  <si>
+    <t>Calidad y Disponibilidad de la Base de Datos de Imágenes Dermatológicas</t>
+  </si>
+  <si>
+    <t>Diversidad de la Base de Datos</t>
+  </si>
+  <si>
+    <t>Índice de Diversidad de Datos (IDD)</t>
+  </si>
+  <si>
+    <t>Tasa de Exactitud</t>
+  </si>
+  <si>
+    <t>Tasa de Exactitud</t>
+  </si>
+  <si>
+    <t>C:\Users\Elizabeth\OneDrive - Universidad ESAN\Escritorio\TESIS_2024_01\Tesis-avances\tesisESANtemplatelatex-main\images_repo\Anexo</t>
   </si>
 </sst>
 </file>
@@ -280,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -291,14 +319,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,21 +340,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -347,22 +368,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>124691</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>55420</xdr:rowOff>
+      <xdr:colOff>96983</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>41565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1991109</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>599312</xdr:rowOff>
+      <xdr:colOff>2105891</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>502846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="4" name="Imagen 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5297380C-2A5C-9A53-7A72-D62995AF097D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6914E3C8-EAC1-29CC-CD80-8555E324F3FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -378,8 +399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15032182" y="3837711"/>
-          <a:ext cx="2753109" cy="724001"/>
+          <a:off x="16043565" y="762001"/>
+          <a:ext cx="2895599" cy="641390"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -391,22 +412,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>27707</xdr:rowOff>
+      <xdr:colOff>27710</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1145006</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>20006</xdr:rowOff>
+      <xdr:colOff>3218288</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>317848</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Imagen 4">
+        <xdr:cNvPr id="12" name="Imagen 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C3718A-850C-6B59-E689-7DB27C4CF6BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F31141-6C08-9EA5-EE17-F83B128919C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -422,8 +443,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15226146" y="2313707"/>
-          <a:ext cx="1962424" cy="657317"/>
+          <a:off x="15974292" y="1662545"/>
+          <a:ext cx="4077269" cy="428685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -435,22 +456,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>96982</xdr:colOff>
+      <xdr:colOff>13855</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>110836</xdr:rowOff>
+      <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1125083</xdr:colOff>
+      <xdr:colOff>3261591</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>347318</xdr:rowOff>
+      <xdr:rowOff>421811</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 5">
+        <xdr:cNvPr id="13" name="Imagen 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0061299-BBCE-F791-3C57-16A228E5AD5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A097D6FC-FC12-B7FC-8E2C-33170CAB69A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -466,8 +487,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15253855" y="3061854"/>
-          <a:ext cx="1914792" cy="638264"/>
+          <a:off x="15960437" y="2964873"/>
+          <a:ext cx="4134427" cy="809738"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -479,22 +500,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2304629</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>486734</xdr:rowOff>
+      <xdr:colOff>2890064</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>443431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Imagen 6">
+        <xdr:cNvPr id="14" name="Imagen 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3418D6D-3E50-7974-0EAE-515315B136EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D5251A-FCC3-AD00-C420-BBF76ADF2603}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -510,8 +531,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15627927" y="720436"/>
-          <a:ext cx="3191320" cy="666843"/>
+          <a:off x="15960437" y="2299855"/>
+          <a:ext cx="3762900" cy="609685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -523,22 +544,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>69273</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>41563</xdr:rowOff>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2259586</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>394950</xdr:rowOff>
+      <xdr:colOff>1994589</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>500588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Imagen 7">
+        <xdr:cNvPr id="15" name="Imagen 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68756B7A-9714-D44A-CFC0-0D5D30147F5D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DAAAD3D-EA04-0F54-47DD-DA99F52193A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -554,8 +575,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15697200" y="1482436"/>
-          <a:ext cx="3077004" cy="685896"/>
+          <a:off x="15960437" y="3810000"/>
+          <a:ext cx="2867425" cy="666843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -567,22 +588,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>290945</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>13855</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2233574</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>633957</xdr:rowOff>
+      <xdr:colOff>2095912</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>523972</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Imagen 8">
+        <xdr:cNvPr id="16" name="Imagen 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4500A504-3304-4CA7-6882-1A8CA2D6817D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDE86429-8653-24B3-28A5-239A0E1C1F8B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -598,8 +619,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16999527" y="4197928"/>
-          <a:ext cx="2829320" cy="800212"/>
+          <a:off x="15906750" y="4743450"/>
+          <a:ext cx="2953162" cy="695422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -611,22 +632,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>263236</xdr:colOff>
+      <xdr:colOff>24741</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>69273</xdr:rowOff>
+      <xdr:rowOff>35628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>2110602</xdr:colOff>
+      <xdr:colOff>1709058</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>489323</xdr:rowOff>
+      <xdr:rowOff>531163</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Imagen 9">
+        <xdr:cNvPr id="17" name="Imagen 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397A5C52-0244-1E50-613C-110F46E99975}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72D14EA1-4E6A-31FF-3B79-71675C4339F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -642,8 +663,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16971818" y="5888182"/>
-          <a:ext cx="2734057" cy="600159"/>
+          <a:off x="15950541" y="5532914"/>
+          <a:ext cx="2566060" cy="680592"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -655,22 +676,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>83127</xdr:colOff>
+      <xdr:colOff>13855</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>166260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>3492811</xdr:colOff>
+      <xdr:colOff>1041956</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>753450</xdr:rowOff>
+      <xdr:rowOff>586310</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Imagen 10">
+        <xdr:cNvPr id="18" name="Imagen 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02907206-DFE6-5505-8CB6-48CE46B0B842}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFE4BA03-C858-CB71-8CA0-13E708F03299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,14 +707,239 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16791709" y="6719455"/>
-          <a:ext cx="4296375" cy="781159"/>
+          <a:off x="15960437" y="6345387"/>
+          <a:ext cx="1914792" cy="600159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>96985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>3185380</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>555140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A39F870-2AC3-3F5C-C306-6CE719B16513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15960437" y="7232076"/>
+          <a:ext cx="4058216" cy="638264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13855</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>41565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>5185910</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>699773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6DBD52-03B9-9DDE-CEEA-B6853B22AE86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15960437" y="8049492"/>
+          <a:ext cx="6058746" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="Grupo 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA20006-E259-DA32-98CB-3E5AF1C1FA1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1924050" y="1714500"/>
+          <a:ext cx="17526000" cy="9505950"/>
+          <a:chOff x="1924050" y="1714500"/>
+          <a:chExt cx="17526000" cy="9505950"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Rectángulo 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8DAB6A-B1A1-C5F9-F4EB-CF5634A53E50}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1924050" y="1714500"/>
+            <a:ext cx="17526000" cy="9505950"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="es-PE" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Imagen 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03D89C6B-E333-03C4-11B4-CB16276FF313}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1981200" y="1866900"/>
+            <a:ext cx="17396460" cy="9342120"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1018,162 +1264,165 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB640F8-1320-4C1F-8930-7E2664020A71}">
   <dimension ref="B1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5:P20"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
     <col min="8" max="9" width="12.88671875" customWidth="1"/>
-    <col min="10" max="10" width="25.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.88671875" customWidth="1"/>
-    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.77734375" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" customWidth="1"/>
     <col min="13" max="13" width="12.88671875" customWidth="1"/>
-    <col min="14" max="14" width="32" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.88671875" customWidth="1"/>
     <col min="16" max="16" width="78.33203125" customWidth="1"/>
-    <col min="17" max="17" width="16.77734375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="7"/>
+      <c r="P3" s="8"/>
       <c r="Q3" s="6" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="5" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1191,20 +1440,20 @@
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -1217,7 +1466,7 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1225,63 +1474,63 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="6"/>
       <c r="R8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:18" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:18" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1294,20 +1543,20 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
       <c r="Q11" s="6" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1320,68 +1569,68 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="5"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5" t="s">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
       <c r="Q13" s="6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:18" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
@@ -1394,20 +1643,20 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
       <c r="Q15" s="6" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1420,63 +1669,63 @@
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="5"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
       <c r="Q16" s="6"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5" t="s">
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5" t="s">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="5"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -1484,7 +1733,7 @@
       <c r="P18" s="3"/>
       <c r="Q18" s="6"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1494,23 +1743,23 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
       <c r="Q19" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1520,55 +1769,63 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
-      <c r="K20" s="5"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
       <c r="Q20" s="6"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="2:18" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -1576,7 +1833,7 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="6"/>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1586,15 +1843,23 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="K23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="2:18" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1604,7 +1869,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -1612,7 +1877,7 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="6"/>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1623,110 +1888,90 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="2:18" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" spans="2:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="11"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="13"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="11"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="13"/>
-    </row>
-    <row r="28" spans="2:18" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="12"/>
+    </row>
+    <row r="28" spans="2:17" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="11"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="13"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="13"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="12"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1737,7 +1982,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1924,4 +2169,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71509863-ACC5-4B3F-9268-7F9CE686EAC8}">
+  <dimension ref="B61"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AA35" sqref="AA35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>